--- a/Multicriteria/bin/Debug/ELECTRE_result.xlsx
+++ b/Multicriteria/bin/Debug/ELECTRE_result.xlsx
@@ -5,29 +5,27 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Согласие" sheetId="1" r:id="Rb5a7708272564518"/>
-    <sheet name="Несогласие" sheetId="2" r:id="R54013271b26b4498"/>
+    <sheet name="Согласие" sheetId="1" r:id="Re3aae7dc17774924"/>
+    <sheet name="Несогласие" sheetId="2" r:id="R1c680e2df5354f35"/>
+    <sheet name="Таблица смежности" sheetId="3" r:id="R63b7606578ef4f8d"/>
   </sheets>
   <d:definedNames xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t>Проект 1</t>
-  </si>
-  <si>
-    <t>Проект 2</t>
-  </si>
-  <si>
-    <t>Проект 5</t>
-  </si>
-  <si>
-    <t>Проект 6</t>
-  </si>
-  <si>
-    <t>Проект 10</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>D</t>
   </si>
   <si>
     <t>*</t>
@@ -75,7 +73,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <d:dimension xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:F6"/>
+  <d:dimension xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -94,28 +92,22 @@
       <c r="E1" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="0" t="s">
-        <v>4</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2" s="0">
-        <v>0.595744680851064</v>
+        <v>0.166666666666667</v>
       </c>
       <c r="D2" s="0">
-        <v>0.787234042553192</v>
+        <v>0.166666666666667</v>
       </c>
       <c r="E2" s="0">
-        <v>0.787234042553192</v>
-      </c>
-      <c r="F2" s="0">
-        <v>0.680851063829787</v>
+        <v>0.166666666666667</v>
       </c>
     </row>
     <row r="3">
@@ -123,19 +115,16 @@
         <v>1</v>
       </c>
       <c r="B3" s="0">
-        <v>0.702127659574468</v>
+        <v>0.833333333333333</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D3" s="0">
-        <v>0.851063829787234</v>
+        <v>0.5</v>
       </c>
       <c r="E3" s="0">
-        <v>0.702127659574468</v>
-      </c>
-      <c r="F3" s="0">
-        <v>0.723404255319149</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="4">
@@ -143,19 +132,16 @@
         <v>2</v>
       </c>
       <c r="B4" s="0">
-        <v>0.531914893617021</v>
+        <v>0.833333333333333</v>
       </c>
       <c r="C4" s="0">
-        <v>0.638297872340426</v>
+        <v>0.5</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E4" s="0">
-        <v>0.851063829787234</v>
-      </c>
-      <c r="F4" s="0">
-        <v>0.680851063829787</v>
+        <v>0.166666666666667</v>
       </c>
     </row>
     <row r="5">
@@ -163,39 +149,16 @@
         <v>3</v>
       </c>
       <c r="B5" s="0">
-        <v>0.680851063829787</v>
+        <v>0.833333333333333</v>
       </c>
       <c r="C5" s="0">
-        <v>0.425531914893617</v>
+        <v>0.5</v>
       </c>
       <c r="D5" s="0">
-        <v>0.617021276595745</v>
+        <v>0.833333333333333</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="F5" s="0">
-        <v>0.51063829787234</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="0">
-        <v>0.531914893617021</v>
-      </c>
-      <c r="C6" s="0">
-        <v>0.617021276595745</v>
-      </c>
-      <c r="D6" s="0">
-        <v>0.787234042553192</v>
-      </c>
-      <c r="E6" s="0">
-        <v>0.638297872340426</v>
-      </c>
-      <c r="F6" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -204,7 +167,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <d:dimension xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:F6"/>
+  <d:dimension xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -223,28 +186,22 @@
       <c r="E1" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="0" t="s">
-        <v>4</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2" s="0">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="D2" s="0">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="E2" s="0">
-        <v>0.5</v>
-      </c>
-      <c r="F2" s="0">
-        <v>1</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="3">
@@ -252,19 +209,16 @@
         <v>1</v>
       </c>
       <c r="B3" s="0">
-        <v>1</v>
+        <v>0.111111111111111</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D3" s="0">
-        <v>0.333333333333333</v>
+        <v>0.1</v>
       </c>
       <c r="E3" s="0">
-        <v>1</v>
-      </c>
-      <c r="F3" s="0">
-        <v>1</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="4">
@@ -272,19 +226,16 @@
         <v>2</v>
       </c>
       <c r="B4" s="0">
-        <v>1</v>
+        <v>0.222222222222222</v>
       </c>
       <c r="C4" s="0">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E4" s="0">
-        <v>1</v>
-      </c>
-      <c r="F4" s="0">
-        <v>1</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="5">
@@ -292,39 +243,110 @@
         <v>3</v>
       </c>
       <c r="B5" s="0">
-        <v>1</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="C5" s="0">
-        <v>1</v>
+        <v>0.222222222222222</v>
       </c>
       <c r="D5" s="0">
-        <v>0.5</v>
+        <v>0.111111111111111</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="F5" s="0">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="0">
-        <v>1</v>
-      </c>
-      <c r="C6" s="0">
-        <v>1</v>
-      </c>
-      <c r="D6" s="0">
-        <v>1</v>
-      </c>
-      <c r="E6" s="0">
-        <v>1</v>
-      </c>
-      <c r="F6" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <d:dimension xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:E5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0"/>
+      <c r="B1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2" s="0">
+        <v>1</v>
+      </c>
+      <c r="E2" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="0">
+        <v>1</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="0">
+        <v>1</v>
+      </c>
+      <c r="E3" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="0">
+        <v>1</v>
+      </c>
+      <c r="C4" s="0">
+        <v>1</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="0">
+        <v>1</v>
+      </c>
+      <c r="C5" s="0">
+        <v>1</v>
+      </c>
+      <c r="D5" s="0">
+        <v>1</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Multicriteria/bin/Debug/ELECTRE_result.xlsx
+++ b/Multicriteria/bin/Debug/ELECTRE_result.xlsx
@@ -5,9 +5,9 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Согласие" sheetId="1" r:id="Re3aae7dc17774924"/>
-    <sheet name="Несогласие" sheetId="2" r:id="R1c680e2df5354f35"/>
-    <sheet name="Таблица смежности" sheetId="3" r:id="R63b7606578ef4f8d"/>
+    <sheet name="Согласие" sheetId="1" r:id="Rfa7b83cf83324fa7"/>
+    <sheet name="Несогласие" sheetId="2" r:id="R7ef3e21eb791466d"/>
+    <sheet name="Таблица смежности" sheetId="3" r:id="Re5e07bf1afbb45e5"/>
   </sheets>
   <d:definedNames xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </workbook>
@@ -195,13 +195,13 @@
         <v>4</v>
       </c>
       <c r="C2" s="0">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="D2" s="0">
-        <v>0.3</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="E2" s="0">
-        <v>0.4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -209,16 +209,16 @@
         <v>1</v>
       </c>
       <c r="B3" s="0">
-        <v>0.111111111111111</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="C3" s="0" t="s">
         <v>4</v>
       </c>
       <c r="D3" s="0">
-        <v>0.1</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="E3" s="0">
-        <v>0.2</v>
+        <v>0.666666666666667</v>
       </c>
     </row>
     <row r="4">
@@ -226,16 +226,16 @@
         <v>2</v>
       </c>
       <c r="B4" s="0">
-        <v>0.222222222222222</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="C4" s="0">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="D4" s="0" t="s">
         <v>4</v>
       </c>
       <c r="E4" s="0">
-        <v>0.1</v>
+        <v>0.333333333333333</v>
       </c>
     </row>
     <row r="5">
@@ -243,13 +243,13 @@
         <v>3</v>
       </c>
       <c r="B5" s="0">
+        <v>1</v>
+      </c>
+      <c r="C5" s="0">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="D5" s="0">
         <v>0.333333333333333</v>
-      </c>
-      <c r="C5" s="0">
-        <v>0.222222222222222</v>
-      </c>
-      <c r="D5" s="0">
-        <v>0.111111111111111</v>
       </c>
       <c r="E5" s="0" t="s">
         <v>4</v>
@@ -289,13 +289,13 @@
         <v>4</v>
       </c>
       <c r="C2" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -303,16 +303,16 @@
         <v>1</v>
       </c>
       <c r="B3" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" s="0" t="s">
         <v>4</v>
       </c>
       <c r="D3" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -320,16 +320,16 @@
         <v>2</v>
       </c>
       <c r="B4" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" s="0" t="s">
         <v>4</v>
       </c>
       <c r="E4" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -337,13 +337,13 @@
         <v>3</v>
       </c>
       <c r="B5" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" s="0" t="s">
         <v>4</v>

--- a/Multicriteria/bin/Debug/ELECTRE_result.xlsx
+++ b/Multicriteria/bin/Debug/ELECTRE_result.xlsx
@@ -5,9 +5,9 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Согласие" sheetId="1" r:id="Rfa7b83cf83324fa7"/>
-    <sheet name="Несогласие" sheetId="2" r:id="R7ef3e21eb791466d"/>
-    <sheet name="Таблица смежности" sheetId="3" r:id="Re5e07bf1afbb45e5"/>
+    <sheet name="Согласие" sheetId="1" r:id="Rdfb0cf1df49f43a4"/>
+    <sheet name="Несогласие" sheetId="2" r:id="R45487deed7f84589"/>
+    <sheet name="Таблица смежности" sheetId="3" r:id="R2b7e07b22bf34990"/>
   </sheets>
   <d:definedNames xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </workbook>
@@ -16,16 +16,16 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>D</t>
+    <t>Aaaaaaaaa</t>
+  </si>
+  <si>
+    <t>bbb</t>
+  </si>
+  <si>
+    <t>cc</t>
+  </si>
+  <si>
+    <t>dddddddddddddd</t>
   </si>
   <si>
     <t>*</t>

--- a/Multicriteria/bin/Debug/ELECTRE_result.xlsx
+++ b/Multicriteria/bin/Debug/ELECTRE_result.xlsx
@@ -5,9 +5,9 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Согласие" sheetId="1" r:id="Rdfb0cf1df49f43a4"/>
-    <sheet name="Несогласие" sheetId="2" r:id="R45487deed7f84589"/>
-    <sheet name="Таблица смежности" sheetId="3" r:id="R2b7e07b22bf34990"/>
+    <sheet name="Согласие" sheetId="1" r:id="R93c2b59bdd274320"/>
+    <sheet name="Несогласие" sheetId="2" r:id="R7ee442feea5d45e8"/>
+    <sheet name="Таблица смежности" sheetId="3" r:id="R5ecfe33b516847fc"/>
   </sheets>
   <d:definedNames xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </workbook>
